--- a/budgeteer-ubw-importer/src/main/resources/example_ubw_report.xlsx
+++ b/budgeteer-ubw-importer/src/main/resources/example_ubw_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehmke\Projekte\budgeteer\budgeteer-ubw-importer\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\daten\workspaces\budgeteer\budgeteer-ubw-importer\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="FP Aufwände vor Abnahme" sheetId="68" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Aufwände gesamt'!$A$3:$L$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Aufwände gesamt'!$A$3:$M$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'FP Aufwände vor Abnahme'!$A$3:$L$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10274" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10275" uniqueCount="107">
   <si>
     <t>*</t>
   </si>
@@ -667,7 +667,7 @@
     <cellStyle name="Standard 3" xfId="2"/>
     <cellStyle name="Standard 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
       <font>
         <color auto="1"/>
@@ -715,8 +715,35 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFFF99"/>
@@ -2936,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2950,17 +2977,18 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>71</v>
       </c>
@@ -2972,11 +3000,12 @@
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
       <c r="I1" s="72"/>
-      <c r="J1" s="70"/>
+      <c r="J1" s="72"/>
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M1" s="70"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2989,8 +3018,9 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>35</v>
       </c>
@@ -3010,28 +3040,31 @@
         <v>8</v>
       </c>
       <c r="G3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="L3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="M3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="36"/>
       <c r="N3" s="36"/>
       <c r="O3" s="36"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>46</v>
       </c>
@@ -3051,26 +3084,27 @@
         <v>56</v>
       </c>
       <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="45">
+      <c r="J4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="45">
         <v>5</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L4" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="22"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -3090,26 +3124,27 @@
         <v>62</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="45">
+      <c r="J5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="45">
         <v>6</v>
       </c>
-      <c r="K5" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L5" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="22"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>46</v>
       </c>
@@ -3129,26 +3164,27 @@
         <v>62</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="45">
+      <c r="J6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="45">
         <v>6</v>
       </c>
-      <c r="K6" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L6" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="22"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>46</v>
       </c>
@@ -3168,26 +3204,27 @@
         <v>56</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="45">
+      <c r="J7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="45">
         <v>7</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L7" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>46</v>
       </c>
@@ -3207,26 +3244,27 @@
         <v>62</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="45">
+      <c r="J8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="45">
         <v>7</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L8" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="22"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
@@ -3246,26 +3284,27 @@
         <v>56</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="45">
+      <c r="J9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="45">
         <v>7</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L9" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="22"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>46</v>
       </c>
@@ -3285,26 +3324,27 @@
         <v>62</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="45">
+      <c r="J10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="45">
         <v>7</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L10" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="22"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>46</v>
       </c>
@@ -3324,26 +3364,27 @@
         <v>56</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="45">
+      <c r="J11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="45">
         <v>7</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L11" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="22"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>46</v>
       </c>
@@ -3363,26 +3404,27 @@
         <v>62</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="45">
+      <c r="J12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="45">
         <v>7</v>
       </c>
-      <c r="K12" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L12" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="22"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>46</v>
       </c>
@@ -3402,26 +3444,27 @@
         <v>62</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="45">
+      <c r="J13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="45">
         <v>7</v>
       </c>
-      <c r="K13" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L13" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>46</v>
       </c>
@@ -3441,26 +3484,27 @@
         <v>56</v>
       </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="45">
+      <c r="J14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="45">
         <v>8</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>46</v>
       </c>
@@ -3480,26 +3524,27 @@
         <v>56</v>
       </c>
       <c r="G15" s="20"/>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="45">
+      <c r="J15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="45">
         <v>8</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="22"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="22"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>46</v>
       </c>
@@ -3519,26 +3564,27 @@
         <v>56</v>
       </c>
       <c r="G16" s="20"/>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="45">
+      <c r="J16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="45">
         <v>8</v>
       </c>
-      <c r="K16" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="22"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="22"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>46</v>
       </c>
@@ -3558,26 +3604,27 @@
         <v>62</v>
       </c>
       <c r="G17" s="20"/>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="45">
+      <c r="J17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="45">
         <v>8</v>
       </c>
-      <c r="K17" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L17" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="22"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="22"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>46</v>
       </c>
@@ -3597,26 +3644,27 @@
         <v>62</v>
       </c>
       <c r="G18" s="20"/>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="45">
+      <c r="J18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="45">
         <v>8</v>
       </c>
-      <c r="K18" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="22"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="22"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="22"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>46</v>
       </c>
@@ -3636,26 +3684,27 @@
         <v>62</v>
       </c>
       <c r="G19" s="20"/>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="45">
+      <c r="J19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="45">
         <v>8</v>
       </c>
-      <c r="K19" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L19" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="22"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="22"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="22"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>46</v>
       </c>
@@ -3675,26 +3724,27 @@
         <v>56</v>
       </c>
       <c r="G20" s="20"/>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="45">
+      <c r="J20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="45">
         <v>8</v>
       </c>
-      <c r="K20" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L20" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="22"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="22"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="22"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>46</v>
       </c>
@@ -3714,26 +3764,27 @@
         <v>62</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="45">
+      <c r="J21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="45">
         <v>8</v>
       </c>
-      <c r="K21" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L21" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="22"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="22"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="22"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>46</v>
       </c>
@@ -3753,26 +3804,27 @@
         <v>56</v>
       </c>
       <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="45">
+      <c r="J22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="45">
         <v>8</v>
       </c>
-      <c r="K22" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L22" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="22"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="22"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>46</v>
       </c>
@@ -3792,26 +3844,27 @@
         <v>56</v>
       </c>
       <c r="G23" s="20"/>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="45">
+      <c r="J23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="45">
         <v>8</v>
       </c>
-      <c r="K23" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L23" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="22"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="22"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>46</v>
       </c>
@@ -3831,26 +3884,27 @@
         <v>56</v>
       </c>
       <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="45">
+      <c r="J24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="45">
         <v>8</v>
       </c>
-      <c r="K24" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L24" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="22"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="22"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>46</v>
       </c>
@@ -3870,26 +3924,27 @@
         <v>62</v>
       </c>
       <c r="G25" s="20"/>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="45">
+      <c r="J25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="45">
         <v>8</v>
       </c>
-      <c r="K25" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L25" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="22"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" s="22"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="22"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>46</v>
       </c>
@@ -3909,26 +3964,27 @@
         <v>56</v>
       </c>
       <c r="G26" s="20"/>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="45">
+      <c r="J26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="45">
         <v>8</v>
       </c>
-      <c r="K26" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L26" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="22"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26" s="22"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="22"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>46</v>
       </c>
@@ -3948,26 +4004,27 @@
         <v>56</v>
       </c>
       <c r="G27" s="20"/>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I27" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="45">
+      <c r="J27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="45">
         <v>8</v>
       </c>
-      <c r="K27" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L27" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="22"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" s="22"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="22"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>46</v>
       </c>
@@ -3987,26 +4044,27 @@
         <v>62</v>
       </c>
       <c r="G28" s="20"/>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="45">
+      <c r="J28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="45">
         <v>8</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L28" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="22"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" s="22"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="22"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>46</v>
       </c>
@@ -4026,26 +4084,27 @@
         <v>62</v>
       </c>
       <c r="G29" s="20"/>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="45">
+      <c r="J29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="45">
         <v>8</v>
       </c>
-      <c r="K29" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L29" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M29" s="22"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="22"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N29" s="22"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="22"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>46</v>
       </c>
@@ -4065,26 +4124,27 @@
         <v>56</v>
       </c>
       <c r="G30" s="20"/>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="20"/>
+      <c r="I30" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" s="45">
+      <c r="J30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="45">
         <v>9</v>
       </c>
-      <c r="K30" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L30" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="22"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N30" s="22"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>46</v>
       </c>
@@ -4104,26 +4164,27 @@
         <v>62</v>
       </c>
       <c r="G31" s="20"/>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I31" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="45">
+      <c r="J31" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="45">
         <v>9</v>
       </c>
-      <c r="K31" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L31" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M31" s="22"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="22"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" s="22"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="22"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>46</v>
       </c>
@@ -4143,26 +4204,27 @@
         <v>56</v>
       </c>
       <c r="G32" s="20"/>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" s="45">
+      <c r="J32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="45">
         <v>9</v>
       </c>
-      <c r="K32" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L32" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M32" s="22"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="22"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" s="22"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="22"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>46</v>
       </c>
@@ -4182,26 +4244,27 @@
         <v>62</v>
       </c>
       <c r="G33" s="20"/>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I33" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" s="45">
+      <c r="J33" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="45">
         <v>9</v>
       </c>
-      <c r="K33" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L33" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="22"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N33" s="22"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="22"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>46</v>
       </c>
@@ -4221,26 +4284,27 @@
         <v>56</v>
       </c>
       <c r="G34" s="20"/>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I34" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J34" s="45">
+      <c r="J34" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="45">
         <v>9</v>
       </c>
-      <c r="K34" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L34" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M34" s="22"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="22"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N34" s="22"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="22"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>46</v>
       </c>
@@ -4260,26 +4324,27 @@
         <v>62</v>
       </c>
       <c r="G35" s="20"/>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I35" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J35" s="45">
+      <c r="J35" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="45">
         <v>9</v>
       </c>
-      <c r="K35" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L35" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="22"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35" s="22"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="22"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>46</v>
       </c>
@@ -4299,26 +4364,27 @@
         <v>62</v>
       </c>
       <c r="G36" s="20"/>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I36" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J36" s="45">
+      <c r="J36" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="45">
         <v>9</v>
       </c>
-      <c r="K36" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L36" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="22"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N36" s="22"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="22"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>46</v>
       </c>
@@ -4338,26 +4404,27 @@
         <v>56</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I37" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" s="45">
+      <c r="J37" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="45">
         <v>9</v>
       </c>
-      <c r="K37" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L37" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="22"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N37" s="22"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="22"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>46</v>
       </c>
@@ -4377,26 +4444,27 @@
         <v>56</v>
       </c>
       <c r="G38" s="20"/>
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="20"/>
+      <c r="I38" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I38" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J38" s="45">
+      <c r="J38" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="45">
         <v>9</v>
       </c>
-      <c r="K38" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L38" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="22"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N38" s="22"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="22"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>46</v>
       </c>
@@ -4416,26 +4484,27 @@
         <v>62</v>
       </c>
       <c r="G39" s="20"/>
-      <c r="H39" s="20" t="s">
+      <c r="H39" s="20"/>
+      <c r="I39" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I39" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J39" s="45">
+      <c r="J39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="45">
         <v>9</v>
       </c>
-      <c r="K39" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L39" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M39" s="22"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="22"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N39" s="22"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="22"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>46</v>
       </c>
@@ -4455,26 +4524,27 @@
         <v>62</v>
       </c>
       <c r="G40" s="20"/>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I40" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J40" s="45">
+      <c r="J40" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" s="45">
         <v>10</v>
       </c>
-      <c r="K40" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L40" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="22"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40" s="22"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="22"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>46</v>
       </c>
@@ -4494,26 +4564,27 @@
         <v>56</v>
       </c>
       <c r="G41" s="20"/>
-      <c r="H41" s="20" t="s">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" s="45">
+      <c r="J41" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="45">
         <v>10</v>
       </c>
-      <c r="K41" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L41" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="22"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M41" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" s="22"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="22"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>46</v>
       </c>
@@ -4533,26 +4604,27 @@
         <v>56</v>
       </c>
       <c r="G42" s="20"/>
-      <c r="H42" s="20" t="s">
+      <c r="H42" s="20"/>
+      <c r="I42" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I42" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" s="45">
+      <c r="J42" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="45">
         <v>11</v>
       </c>
-      <c r="K42" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L42" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="22"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N42" s="22"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="22"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>46</v>
       </c>
@@ -4572,26 +4644,27 @@
         <v>62</v>
       </c>
       <c r="G43" s="20"/>
-      <c r="H43" s="20" t="s">
+      <c r="H43" s="20"/>
+      <c r="I43" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I43" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J43" s="45">
+      <c r="J43" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="45">
         <v>12</v>
       </c>
-      <c r="K43" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L43" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M43" s="22"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="22"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N43" s="22"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="22"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>46</v>
       </c>
@@ -4611,26 +4684,27 @@
         <v>59</v>
       </c>
       <c r="G44" s="20"/>
-      <c r="H44" s="20" t="s">
+      <c r="H44" s="20"/>
+      <c r="I44" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I44" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J44" s="45">
+      <c r="J44" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="45">
         <v>5</v>
       </c>
-      <c r="K44" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L44" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M44" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="22"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N44" s="22"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="22"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>46</v>
       </c>
@@ -4650,26 +4724,27 @@
         <v>59</v>
       </c>
       <c r="G45" s="20"/>
-      <c r="H45" s="20" t="s">
+      <c r="H45" s="20"/>
+      <c r="I45" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I45" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J45" s="45">
+      <c r="J45" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="45">
         <v>5</v>
       </c>
-      <c r="K45" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L45" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="22"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N45" s="22"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="22"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>46</v>
       </c>
@@ -4689,26 +4764,27 @@
         <v>59</v>
       </c>
       <c r="G46" s="20"/>
-      <c r="H46" s="20" t="s">
+      <c r="H46" s="20"/>
+      <c r="I46" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I46" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J46" s="45">
+      <c r="J46" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" s="45">
         <v>6</v>
       </c>
-      <c r="K46" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L46" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M46" s="22"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="22"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N46" s="22"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="22"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>46</v>
       </c>
@@ -4728,26 +4804,27 @@
         <v>59</v>
       </c>
       <c r="G47" s="20"/>
-      <c r="H47" s="20" t="s">
+      <c r="H47" s="20"/>
+      <c r="I47" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I47" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J47" s="45">
+      <c r="J47" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" s="45">
         <v>7</v>
       </c>
-      <c r="K47" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L47" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M47" s="22"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="22"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N47" s="22"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="22"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>46</v>
       </c>
@@ -4767,26 +4844,27 @@
         <v>59</v>
       </c>
       <c r="G48" s="20"/>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="20"/>
+      <c r="I48" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I48" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" s="45">
+      <c r="J48" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48" s="45">
         <v>7</v>
       </c>
-      <c r="K48" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L48" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M48" s="22"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="22"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N48" s="22"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="22"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>46</v>
       </c>
@@ -4806,26 +4884,27 @@
         <v>55</v>
       </c>
       <c r="G49" s="20"/>
-      <c r="H49" s="20" t="s">
+      <c r="H49" s="20"/>
+      <c r="I49" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I49" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J49" s="45">
+      <c r="J49" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" s="45">
         <v>7</v>
       </c>
-      <c r="K49" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L49" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M49" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M49" s="22"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="22"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N49" s="22"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="22"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>46</v>
       </c>
@@ -4845,26 +4924,27 @@
         <v>59</v>
       </c>
       <c r="G50" s="20"/>
-      <c r="H50" s="20" t="s">
+      <c r="H50" s="20"/>
+      <c r="I50" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I50" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J50" s="45">
+      <c r="J50" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" s="45">
         <v>7</v>
       </c>
-      <c r="K50" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L50" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M50" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M50" s="22"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="22"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N50" s="22"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="22"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>46</v>
       </c>
@@ -4884,26 +4964,27 @@
         <v>59</v>
       </c>
       <c r="G51" s="20"/>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="20"/>
+      <c r="I51" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I51" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J51" s="45">
+      <c r="J51" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K51" s="45">
         <v>7</v>
       </c>
-      <c r="K51" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L51" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M51" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M51" s="22"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="22"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N51" s="22"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="22"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>46</v>
       </c>
@@ -4923,26 +5004,27 @@
         <v>55</v>
       </c>
       <c r="G52" s="20"/>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="20"/>
+      <c r="I52" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I52" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J52" s="45">
+      <c r="J52" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K52" s="45">
         <v>7</v>
       </c>
-      <c r="K52" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L52" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M52" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M52" s="22"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="22"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N52" s="22"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="22"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>46</v>
       </c>
@@ -4962,26 +5044,27 @@
         <v>55</v>
       </c>
       <c r="G53" s="20"/>
-      <c r="H53" s="20" t="s">
+      <c r="H53" s="20"/>
+      <c r="I53" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I53" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J53" s="45">
+      <c r="J53" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="45">
         <v>7</v>
       </c>
-      <c r="K53" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L53" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M53" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M53" s="22"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="22"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N53" s="22"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="22"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>46</v>
       </c>
@@ -5001,26 +5084,27 @@
         <v>59</v>
       </c>
       <c r="G54" s="20"/>
-      <c r="H54" s="20" t="s">
+      <c r="H54" s="20"/>
+      <c r="I54" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I54" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J54" s="45">
+      <c r="J54" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" s="45">
         <v>7</v>
       </c>
-      <c r="K54" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L54" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M54" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M54" s="22"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="22"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N54" s="22"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="22"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>46</v>
       </c>
@@ -5040,26 +5124,27 @@
         <v>55</v>
       </c>
       <c r="G55" s="20"/>
-      <c r="H55" s="20" t="s">
+      <c r="H55" s="20"/>
+      <c r="I55" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I55" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J55" s="45">
+      <c r="J55" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" s="45">
         <v>7</v>
       </c>
-      <c r="K55" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L55" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M55" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M55" s="22"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="22"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N55" s="22"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="22"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>46</v>
       </c>
@@ -5079,26 +5164,27 @@
         <v>55</v>
       </c>
       <c r="G56" s="20"/>
-      <c r="H56" s="20" t="s">
+      <c r="H56" s="20"/>
+      <c r="I56" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I56" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J56" s="45">
+      <c r="J56" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K56" s="45">
         <v>7</v>
       </c>
-      <c r="K56" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L56" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M56" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M56" s="22"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="22"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N56" s="22"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="22"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>46</v>
       </c>
@@ -5118,26 +5204,27 @@
         <v>59</v>
       </c>
       <c r="G57" s="20"/>
-      <c r="H57" s="20" t="s">
+      <c r="H57" s="20"/>
+      <c r="I57" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I57" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J57" s="45">
+      <c r="J57" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57" s="45">
         <v>7</v>
       </c>
-      <c r="K57" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L57" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M57" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M57" s="22"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="22"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N57" s="22"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="22"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>46</v>
       </c>
@@ -5157,26 +5244,27 @@
         <v>59</v>
       </c>
       <c r="G58" s="20"/>
-      <c r="H58" s="20" t="s">
+      <c r="H58" s="20"/>
+      <c r="I58" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I58" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J58" s="45">
+      <c r="J58" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K58" s="45">
         <v>8</v>
       </c>
-      <c r="K58" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L58" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M58" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M58" s="22"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="22"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N58" s="22"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="22"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>46</v>
       </c>
@@ -5196,26 +5284,27 @@
         <v>55</v>
       </c>
       <c r="G59" s="20"/>
-      <c r="H59" s="20" t="s">
+      <c r="H59" s="20"/>
+      <c r="I59" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I59" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J59" s="45">
+      <c r="J59" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K59" s="45">
         <v>8</v>
       </c>
-      <c r="K59" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L59" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M59" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M59" s="22"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="22"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N59" s="22"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="22"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>46</v>
       </c>
@@ -5235,26 +5324,27 @@
         <v>55</v>
       </c>
       <c r="G60" s="20"/>
-      <c r="H60" s="20" t="s">
+      <c r="H60" s="20"/>
+      <c r="I60" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I60" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J60" s="45">
+      <c r="J60" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K60" s="45">
         <v>8</v>
       </c>
-      <c r="K60" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L60" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M60" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M60" s="22"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="22"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N60" s="22"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="22"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>46</v>
       </c>
@@ -5274,26 +5364,27 @@
         <v>59</v>
       </c>
       <c r="G61" s="20"/>
-      <c r="H61" s="20" t="s">
+      <c r="H61" s="20"/>
+      <c r="I61" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I61" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J61" s="45">
+      <c r="J61" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61" s="45">
         <v>8</v>
       </c>
-      <c r="K61" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L61" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M61" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M61" s="22"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="22"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N61" s="22"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="22"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>46</v>
       </c>
@@ -5313,26 +5404,27 @@
         <v>59</v>
       </c>
       <c r="G62" s="20"/>
-      <c r="H62" s="20" t="s">
+      <c r="H62" s="20"/>
+      <c r="I62" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I62" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J62" s="45">
+      <c r="J62" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K62" s="45">
         <v>8</v>
       </c>
-      <c r="K62" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L62" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M62" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M62" s="22"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="22"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N62" s="22"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="22"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>46</v>
       </c>
@@ -5352,26 +5444,27 @@
         <v>55</v>
       </c>
       <c r="G63" s="20"/>
-      <c r="H63" s="20" t="s">
+      <c r="H63" s="20"/>
+      <c r="I63" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I63" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J63" s="45">
+      <c r="J63" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K63" s="45">
         <v>8</v>
       </c>
-      <c r="K63" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L63" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M63" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M63" s="22"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="22"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N63" s="22"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="22"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>46</v>
       </c>
@@ -5391,26 +5484,27 @@
         <v>55</v>
       </c>
       <c r="G64" s="20"/>
-      <c r="H64" s="20" t="s">
+      <c r="H64" s="20"/>
+      <c r="I64" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J64" s="45">
+      <c r="J64" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K64" s="45">
         <v>8</v>
       </c>
-      <c r="K64" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L64" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M64" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M64" s="22"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="22"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N64" s="22"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="22"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>46</v>
       </c>
@@ -5430,26 +5524,27 @@
         <v>59</v>
       </c>
       <c r="G65" s="20"/>
-      <c r="H65" s="20" t="s">
+      <c r="H65" s="20"/>
+      <c r="I65" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I65" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J65" s="45">
+      <c r="J65" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K65" s="45">
         <v>8</v>
       </c>
-      <c r="K65" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L65" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M65" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M65" s="22"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="22"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N65" s="22"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="22"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>46</v>
       </c>
@@ -5469,26 +5564,27 @@
         <v>59</v>
       </c>
       <c r="G66" s="20"/>
-      <c r="H66" s="20" t="s">
+      <c r="H66" s="20"/>
+      <c r="I66" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I66" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J66" s="45">
+      <c r="J66" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K66" s="45">
         <v>8</v>
       </c>
-      <c r="K66" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L66" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M66" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M66" s="22"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="22"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N66" s="22"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="22"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>46</v>
       </c>
@@ -5508,26 +5604,27 @@
         <v>59</v>
       </c>
       <c r="G67" s="20"/>
-      <c r="H67" s="20" t="s">
+      <c r="H67" s="20"/>
+      <c r="I67" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I67" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J67" s="45">
+      <c r="J67" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K67" s="45">
         <v>8</v>
       </c>
-      <c r="K67" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L67" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M67" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M67" s="22"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="22"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N67" s="22"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="22"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>46</v>
       </c>
@@ -5547,26 +5644,27 @@
         <v>59</v>
       </c>
       <c r="G68" s="20"/>
-      <c r="H68" s="20" t="s">
+      <c r="H68" s="20"/>
+      <c r="I68" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I68" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J68" s="45">
+      <c r="J68" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68" s="45">
         <v>8</v>
       </c>
-      <c r="K68" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L68" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M68" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M68" s="22"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="22"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N68" s="22"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="22"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>46</v>
       </c>
@@ -5586,26 +5684,27 @@
         <v>55</v>
       </c>
       <c r="G69" s="20"/>
-      <c r="H69" s="20" t="s">
+      <c r="H69" s="20"/>
+      <c r="I69" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I69" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J69" s="45">
+      <c r="J69" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K69" s="45">
         <v>8</v>
       </c>
-      <c r="K69" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L69" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M69" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M69" s="22"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="22"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N69" s="22"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="22"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>46</v>
       </c>
@@ -5625,26 +5724,27 @@
         <v>55</v>
       </c>
       <c r="G70" s="20"/>
-      <c r="H70" s="20" t="s">
+      <c r="H70" s="20"/>
+      <c r="I70" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I70" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J70" s="45">
+      <c r="J70" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K70" s="45">
         <v>8</v>
       </c>
-      <c r="K70" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L70" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M70" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M70" s="22"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="22"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N70" s="22"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="22"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>46</v>
       </c>
@@ -5664,26 +5764,27 @@
         <v>55</v>
       </c>
       <c r="G71" s="20"/>
-      <c r="H71" s="20" t="s">
+      <c r="H71" s="20"/>
+      <c r="I71" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I71" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J71" s="45">
+      <c r="J71" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K71" s="45">
         <v>8</v>
       </c>
-      <c r="K71" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L71" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M71" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M71" s="22"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="22"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N71" s="22"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="22"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>46</v>
       </c>
@@ -5703,26 +5804,27 @@
         <v>59</v>
       </c>
       <c r="G72" s="20"/>
-      <c r="H72" s="20" t="s">
+      <c r="H72" s="20"/>
+      <c r="I72" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I72" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J72" s="45">
+      <c r="J72" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72" s="45">
         <v>8</v>
       </c>
-      <c r="K72" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L72" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M72" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M72" s="22"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="22"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N72" s="22"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="22"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>46</v>
       </c>
@@ -5742,26 +5844,27 @@
         <v>55</v>
       </c>
       <c r="G73" s="20"/>
-      <c r="H73" s="20" t="s">
+      <c r="H73" s="20"/>
+      <c r="I73" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I73" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J73" s="45">
+      <c r="J73" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K73" s="45">
         <v>9</v>
       </c>
-      <c r="K73" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L73" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M73" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M73" s="22"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="22"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N73" s="22"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="22"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
         <v>46</v>
       </c>
@@ -5781,26 +5884,27 @@
         <v>55</v>
       </c>
       <c r="G74" s="20"/>
-      <c r="H74" s="20" t="s">
+      <c r="H74" s="20"/>
+      <c r="I74" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I74" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J74" s="45">
+      <c r="J74" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74" s="45">
         <v>9</v>
       </c>
-      <c r="K74" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L74" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M74" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M74" s="22"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="22"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N74" s="22"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="22"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>46</v>
       </c>
@@ -5820,26 +5924,27 @@
         <v>59</v>
       </c>
       <c r="G75" s="20"/>
-      <c r="H75" s="20" t="s">
+      <c r="H75" s="20"/>
+      <c r="I75" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I75" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J75" s="45">
+      <c r="J75" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75" s="45">
         <v>9</v>
       </c>
-      <c r="K75" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L75" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M75" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M75" s="22"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="22"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N75" s="22"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="22"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>46</v>
       </c>
@@ -5859,26 +5964,27 @@
         <v>55</v>
       </c>
       <c r="G76" s="20"/>
-      <c r="H76" s="20" t="s">
+      <c r="H76" s="20"/>
+      <c r="I76" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I76" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J76" s="45">
+      <c r="J76" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" s="45">
         <v>9</v>
       </c>
-      <c r="K76" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L76" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M76" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M76" s="22"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="22"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N76" s="22"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="22"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>46</v>
       </c>
@@ -5898,26 +6004,27 @@
         <v>59</v>
       </c>
       <c r="G77" s="20"/>
-      <c r="H77" s="20" t="s">
+      <c r="H77" s="20"/>
+      <c r="I77" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I77" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J77" s="45">
+      <c r="J77" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77" s="45">
         <v>11</v>
       </c>
-      <c r="K77" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L77" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M77" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M77" s="22"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="22"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N77" s="22"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="22"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>46</v>
       </c>
@@ -5937,26 +6044,27 @@
         <v>48</v>
       </c>
       <c r="G78" s="20"/>
-      <c r="H78" s="20" t="s">
+      <c r="H78" s="20"/>
+      <c r="I78" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I78" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J78" s="45">
+      <c r="J78" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78" s="45">
         <v>7</v>
       </c>
-      <c r="K78" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L78" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M78" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M78" s="22"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="22"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N78" s="22"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="22"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>46</v>
       </c>
@@ -5976,26 +6084,27 @@
         <v>48</v>
       </c>
       <c r="G79" s="20"/>
-      <c r="H79" s="20" t="s">
+      <c r="H79" s="20"/>
+      <c r="I79" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I79" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J79" s="45">
+      <c r="J79" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K79" s="45">
         <v>7</v>
       </c>
-      <c r="K79" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L79" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M79" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M79" s="22"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="22"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N79" s="22"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="22"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>46</v>
       </c>
@@ -6015,26 +6124,27 @@
         <v>65</v>
       </c>
       <c r="G80" s="20"/>
-      <c r="H80" s="20" t="s">
+      <c r="H80" s="20"/>
+      <c r="I80" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I80" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J80" s="45">
+      <c r="J80" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K80" s="45">
         <v>7</v>
       </c>
-      <c r="K80" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L80" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M80" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M80" s="22"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="22"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N80" s="22"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="22"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>46</v>
       </c>
@@ -6054,26 +6164,27 @@
         <v>65</v>
       </c>
       <c r="G81" s="20"/>
-      <c r="H81" s="20" t="s">
+      <c r="H81" s="20"/>
+      <c r="I81" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I81" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J81" s="45">
+      <c r="J81" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K81" s="45">
         <v>7</v>
       </c>
-      <c r="K81" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L81" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M81" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M81" s="22"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="22"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N81" s="22"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="22"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>46</v>
       </c>
@@ -6093,26 +6204,27 @@
         <v>65</v>
       </c>
       <c r="G82" s="20"/>
-      <c r="H82" s="20" t="s">
+      <c r="H82" s="20"/>
+      <c r="I82" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I82" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J82" s="45">
+      <c r="J82" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82" s="45">
         <v>7</v>
       </c>
-      <c r="K82" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L82" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M82" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M82" s="22"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="22"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N82" s="22"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="22"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>46</v>
       </c>
@@ -6132,26 +6244,27 @@
         <v>65</v>
       </c>
       <c r="G83" s="20"/>
-      <c r="H83" s="20" t="s">
+      <c r="H83" s="20"/>
+      <c r="I83" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I83" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J83" s="45">
+      <c r="J83" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83" s="45">
         <v>7</v>
       </c>
-      <c r="K83" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L83" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M83" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M83" s="22"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="22"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N83" s="22"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="22"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>46</v>
       </c>
@@ -6171,26 +6284,27 @@
         <v>48</v>
       </c>
       <c r="G84" s="20"/>
-      <c r="H84" s="20" t="s">
+      <c r="H84" s="20"/>
+      <c r="I84" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I84" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J84" s="45">
+      <c r="J84" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K84" s="45">
         <v>7</v>
       </c>
-      <c r="K84" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L84" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M84" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M84" s="22"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="22"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N84" s="22"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="22"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>46</v>
       </c>
@@ -6210,26 +6324,27 @@
         <v>48</v>
       </c>
       <c r="G85" s="20"/>
-      <c r="H85" s="20" t="s">
+      <c r="H85" s="20"/>
+      <c r="I85" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I85" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J85" s="45">
+      <c r="J85" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K85" s="45">
         <v>7</v>
       </c>
-      <c r="K85" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L85" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M85" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M85" s="22"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="22"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N85" s="22"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="22"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>46</v>
       </c>
@@ -6249,26 +6364,27 @@
         <v>48</v>
       </c>
       <c r="G86" s="20"/>
-      <c r="H86" s="20" t="s">
+      <c r="H86" s="20"/>
+      <c r="I86" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I86" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J86" s="45">
+      <c r="J86" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K86" s="45">
         <v>8</v>
       </c>
-      <c r="K86" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L86" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M86" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M86" s="22"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="22"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N86" s="22"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="22"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>46</v>
       </c>
@@ -6288,26 +6404,27 @@
         <v>65</v>
       </c>
       <c r="G87" s="20"/>
-      <c r="H87" s="20" t="s">
+      <c r="H87" s="20"/>
+      <c r="I87" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I87" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J87" s="45">
+      <c r="J87" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K87" s="45">
         <v>8</v>
       </c>
-      <c r="K87" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L87" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M87" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M87" s="22"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="22"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N87" s="22"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="22"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>46</v>
       </c>
@@ -6327,26 +6444,27 @@
         <v>65</v>
       </c>
       <c r="G88" s="20"/>
-      <c r="H88" s="20" t="s">
+      <c r="H88" s="20"/>
+      <c r="I88" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I88" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J88" s="45">
+      <c r="J88" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K88" s="45">
         <v>8</v>
       </c>
-      <c r="K88" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L88" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M88" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M88" s="22"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="22"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N88" s="22"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="22"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>46</v>
       </c>
@@ -6366,26 +6484,27 @@
         <v>65</v>
       </c>
       <c r="G89" s="20"/>
-      <c r="H89" s="20" t="s">
+      <c r="H89" s="20"/>
+      <c r="I89" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I89" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J89" s="45">
+      <c r="J89" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K89" s="45">
         <v>8</v>
       </c>
-      <c r="K89" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L89" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M89" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M89" s="22"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="22"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N89" s="22"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="22"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
         <v>46</v>
       </c>
@@ -6405,26 +6524,27 @@
         <v>48</v>
       </c>
       <c r="G90" s="20"/>
-      <c r="H90" s="20" t="s">
+      <c r="H90" s="20"/>
+      <c r="I90" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I90" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J90" s="45">
+      <c r="J90" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K90" s="45">
         <v>8</v>
       </c>
-      <c r="K90" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L90" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M90" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M90" s="22"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="22"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N90" s="22"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="22"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
         <v>46</v>
       </c>
@@ -6444,26 +6564,27 @@
         <v>48</v>
       </c>
       <c r="G91" s="20"/>
-      <c r="H91" s="20" t="s">
+      <c r="H91" s="20"/>
+      <c r="I91" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I91" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J91" s="45">
+      <c r="J91" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K91" s="45">
         <v>8</v>
       </c>
-      <c r="K91" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L91" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M91" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M91" s="22"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="22"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N91" s="22"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="22"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
         <v>46</v>
       </c>
@@ -6483,26 +6604,27 @@
         <v>48</v>
       </c>
       <c r="G92" s="20"/>
-      <c r="H92" s="20" t="s">
+      <c r="H92" s="20"/>
+      <c r="I92" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I92" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J92" s="45">
+      <c r="J92" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K92" s="45">
         <v>8</v>
       </c>
-      <c r="K92" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L92" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M92" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M92" s="22"/>
-      <c r="N92" s="37"/>
-      <c r="O92" s="22"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N92" s="22"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="22"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
         <v>46</v>
       </c>
@@ -6522,26 +6644,27 @@
         <v>48</v>
       </c>
       <c r="G93" s="20"/>
-      <c r="H93" s="20" t="s">
+      <c r="H93" s="20"/>
+      <c r="I93" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I93" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J93" s="45">
+      <c r="J93" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K93" s="45">
         <v>9</v>
       </c>
-      <c r="K93" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L93" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M93" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M93" s="22"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="22"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N93" s="22"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="22"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
         <v>46</v>
       </c>
@@ -6561,26 +6684,27 @@
         <v>48</v>
       </c>
       <c r="G94" s="20"/>
-      <c r="H94" s="20" t="s">
+      <c r="H94" s="20"/>
+      <c r="I94" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I94" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J94" s="45">
+      <c r="J94" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K94" s="45">
         <v>9</v>
       </c>
-      <c r="K94" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L94" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M94" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M94" s="22"/>
-      <c r="N94" s="37"/>
-      <c r="O94" s="22"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N94" s="22"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="22"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
         <v>46</v>
       </c>
@@ -6600,26 +6724,27 @@
         <v>65</v>
       </c>
       <c r="G95" s="20"/>
-      <c r="H95" s="20" t="s">
+      <c r="H95" s="20"/>
+      <c r="I95" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I95" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J95" s="45">
+      <c r="J95" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K95" s="45">
         <v>9</v>
       </c>
-      <c r="K95" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L95" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M95" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M95" s="22"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="22"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N95" s="22"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="22"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
         <v>46</v>
       </c>
@@ -6639,26 +6764,27 @@
         <v>65</v>
       </c>
       <c r="G96" s="20"/>
-      <c r="H96" s="20" t="s">
+      <c r="H96" s="20"/>
+      <c r="I96" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I96" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J96" s="45">
+      <c r="J96" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K96" s="45">
         <v>9</v>
       </c>
-      <c r="K96" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L96" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M96" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M96" s="22"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="22"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N96" s="22"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="22"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
         <v>46</v>
       </c>
@@ -6678,26 +6804,27 @@
         <v>48</v>
       </c>
       <c r="G97" s="20"/>
-      <c r="H97" s="20" t="s">
+      <c r="H97" s="20"/>
+      <c r="I97" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I97" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J97" s="45">
+      <c r="J97" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K97" s="45">
         <v>9</v>
       </c>
-      <c r="K97" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L97" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M97" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M97" s="22"/>
-      <c r="N97" s="37"/>
-      <c r="O97" s="22"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N97" s="22"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="22"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
         <v>46</v>
       </c>
@@ -6717,26 +6844,27 @@
         <v>48</v>
       </c>
       <c r="G98" s="20"/>
-      <c r="H98" s="20" t="s">
+      <c r="H98" s="20"/>
+      <c r="I98" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I98" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J98" s="45">
+      <c r="J98" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K98" s="45">
         <v>9</v>
       </c>
-      <c r="K98" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L98" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M98" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M98" s="22"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="22"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N98" s="22"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="22"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
         <v>46</v>
       </c>
@@ -6756,26 +6884,27 @@
         <v>65</v>
       </c>
       <c r="G99" s="20"/>
-      <c r="H99" s="20" t="s">
+      <c r="H99" s="20"/>
+      <c r="I99" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I99" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J99" s="45">
+      <c r="J99" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K99" s="45">
         <v>9.5</v>
       </c>
-      <c r="K99" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L99" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M99" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M99" s="22"/>
-      <c r="N99" s="37"/>
-      <c r="O99" s="22"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N99" s="22"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="22"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
         <v>46</v>
       </c>
@@ -6795,26 +6924,27 @@
         <v>48</v>
       </c>
       <c r="G100" s="20"/>
-      <c r="H100" s="20" t="s">
+      <c r="H100" s="20"/>
+      <c r="I100" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I100" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J100" s="45">
+      <c r="J100" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K100" s="45">
         <v>10</v>
       </c>
-      <c r="K100" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L100" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M100" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M100" s="22"/>
-      <c r="N100" s="37"/>
-      <c r="O100" s="22"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N100" s="22"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="22"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
         <v>46</v>
       </c>
@@ -6834,26 +6964,27 @@
         <v>48</v>
       </c>
       <c r="G101" s="20"/>
-      <c r="H101" s="20" t="s">
+      <c r="H101" s="20"/>
+      <c r="I101" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I101" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J101" s="45">
+      <c r="J101" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K101" s="45">
         <v>11</v>
       </c>
-      <c r="K101" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L101" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M101" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="M101" s="22"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="22"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N101" s="22"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="22"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
         <v>46</v>
       </c>
@@ -6873,26 +7004,27 @@
         <v>65</v>
       </c>
       <c r="G102" s="20"/>
-      <c r="H102" s="20" t="s">
+      <c r="H102" s="20"/>
+      <c r="I102" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I102" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J102" s="45">
+      <c r="J102" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K102" s="45">
         <v>5</v>
       </c>
-      <c r="K102" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L102" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M102" s="22"/>
-      <c r="N102" s="37"/>
-      <c r="O102" s="22"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M102" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N102" s="22"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="22"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
         <v>46</v>
       </c>
@@ -6912,26 +7044,27 @@
         <v>49</v>
       </c>
       <c r="G103" s="20"/>
-      <c r="H103" s="20" t="s">
+      <c r="H103" s="20"/>
+      <c r="I103" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I103" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J103" s="45">
+      <c r="J103" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K103" s="45">
         <v>5</v>
       </c>
-      <c r="K103" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L103" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M103" s="22"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="22"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M103" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N103" s="22"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="22"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
         <v>46</v>
       </c>
@@ -6951,26 +7084,27 @@
         <v>49</v>
       </c>
       <c r="G104" s="20"/>
-      <c r="H104" s="20" t="s">
+      <c r="H104" s="20"/>
+      <c r="I104" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I104" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J104" s="45">
+      <c r="J104" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K104" s="45">
         <v>6</v>
       </c>
-      <c r="K104" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L104" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M104" s="22"/>
-      <c r="N104" s="37"/>
-      <c r="O104" s="22"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M104" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N104" s="22"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="22"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="20" t="s">
         <v>46</v>
       </c>
@@ -6990,26 +7124,27 @@
         <v>65</v>
       </c>
       <c r="G105" s="20"/>
-      <c r="H105" s="20" t="s">
+      <c r="H105" s="20"/>
+      <c r="I105" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I105" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J105" s="45">
+      <c r="J105" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K105" s="45">
         <v>6</v>
       </c>
-      <c r="K105" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L105" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M105" s="22"/>
-      <c r="N105" s="37"/>
-      <c r="O105" s="22"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M105" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N105" s="22"/>
+      <c r="O105" s="37"/>
+      <c r="P105" s="22"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
         <v>46</v>
       </c>
@@ -7029,26 +7164,27 @@
         <v>65</v>
       </c>
       <c r="G106" s="20"/>
-      <c r="H106" s="20" t="s">
+      <c r="H106" s="20"/>
+      <c r="I106" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I106" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J106" s="45">
+      <c r="J106" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K106" s="45">
         <v>7</v>
       </c>
-      <c r="K106" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L106" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M106" s="22"/>
-      <c r="N106" s="37"/>
-      <c r="O106" s="22"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M106" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N106" s="22"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="22"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
         <v>46</v>
       </c>
@@ -7068,26 +7204,27 @@
         <v>65</v>
       </c>
       <c r="G107" s="20"/>
-      <c r="H107" s="20" t="s">
+      <c r="H107" s="20"/>
+      <c r="I107" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I107" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J107" s="45">
+      <c r="J107" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K107" s="45">
         <v>7</v>
       </c>
-      <c r="K107" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L107" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M107" s="22"/>
-      <c r="N107" s="37"/>
-      <c r="O107" s="22"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M107" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N107" s="22"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="22"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
         <v>46</v>
       </c>
@@ -7107,26 +7244,27 @@
         <v>49</v>
       </c>
       <c r="G108" s="20"/>
-      <c r="H108" s="20" t="s">
+      <c r="H108" s="20"/>
+      <c r="I108" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I108" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J108" s="45">
+      <c r="J108" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K108" s="45">
         <v>7</v>
       </c>
-      <c r="K108" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L108" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M108" s="22"/>
-      <c r="N108" s="37"/>
-      <c r="O108" s="22"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M108" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N108" s="22"/>
+      <c r="O108" s="37"/>
+      <c r="P108" s="22"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
         <v>46</v>
       </c>
@@ -7146,26 +7284,27 @@
         <v>49</v>
       </c>
       <c r="G109" s="20"/>
-      <c r="H109" s="20" t="s">
+      <c r="H109" s="20"/>
+      <c r="I109" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I109" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J109" s="45">
+      <c r="J109" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K109" s="45">
         <v>7</v>
       </c>
-      <c r="K109" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L109" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M109" s="22"/>
-      <c r="N109" s="37"/>
-      <c r="O109" s="22"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M109" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N109" s="22"/>
+      <c r="O109" s="37"/>
+      <c r="P109" s="22"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
         <v>46</v>
       </c>
@@ -7185,26 +7324,27 @@
         <v>65</v>
       </c>
       <c r="G110" s="20"/>
-      <c r="H110" s="20" t="s">
+      <c r="H110" s="20"/>
+      <c r="I110" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I110" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J110" s="45">
+      <c r="J110" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K110" s="45">
         <v>7</v>
       </c>
-      <c r="K110" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L110" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M110" s="22"/>
-      <c r="N110" s="37"/>
-      <c r="O110" s="22"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M110" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N110" s="22"/>
+      <c r="O110" s="37"/>
+      <c r="P110" s="22"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="20" t="s">
         <v>46</v>
       </c>
@@ -7224,26 +7364,27 @@
         <v>49</v>
       </c>
       <c r="G111" s="20"/>
-      <c r="H111" s="20" t="s">
+      <c r="H111" s="20"/>
+      <c r="I111" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I111" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J111" s="45">
+      <c r="J111" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K111" s="45">
         <v>7</v>
       </c>
-      <c r="K111" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L111" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M111" s="22"/>
-      <c r="N111" s="37"/>
-      <c r="O111" s="22"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M111" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N111" s="22"/>
+      <c r="O111" s="37"/>
+      <c r="P111" s="22"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="20" t="s">
         <v>46</v>
       </c>
@@ -7263,26 +7404,27 @@
         <v>49</v>
       </c>
       <c r="G112" s="20"/>
-      <c r="H112" s="20" t="s">
+      <c r="H112" s="20"/>
+      <c r="I112" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I112" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J112" s="45">
+      <c r="J112" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K112" s="45">
         <v>7</v>
       </c>
-      <c r="K112" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L112" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M112" s="22"/>
-      <c r="N112" s="37"/>
-      <c r="O112" s="22"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M112" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N112" s="22"/>
+      <c r="O112" s="37"/>
+      <c r="P112" s="22"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
         <v>46</v>
       </c>
@@ -7302,26 +7444,27 @@
         <v>65</v>
       </c>
       <c r="G113" s="20"/>
-      <c r="H113" s="20" t="s">
+      <c r="H113" s="20"/>
+      <c r="I113" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I113" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J113" s="45">
+      <c r="J113" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K113" s="45">
         <v>8</v>
       </c>
-      <c r="K113" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L113" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M113" s="22"/>
-      <c r="N113" s="37"/>
-      <c r="O113" s="22"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M113" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N113" s="22"/>
+      <c r="O113" s="37"/>
+      <c r="P113" s="22"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="20" t="s">
         <v>46</v>
       </c>
@@ -7341,26 +7484,27 @@
         <v>49</v>
       </c>
       <c r="G114" s="20"/>
-      <c r="H114" s="20" t="s">
+      <c r="H114" s="20"/>
+      <c r="I114" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I114" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J114" s="45">
+      <c r="J114" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K114" s="45">
         <v>8</v>
       </c>
-      <c r="K114" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L114" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M114" s="22"/>
-      <c r="N114" s="37"/>
-      <c r="O114" s="22"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M114" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N114" s="22"/>
+      <c r="O114" s="37"/>
+      <c r="P114" s="22"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="20" t="s">
         <v>46</v>
       </c>
@@ -7380,26 +7524,27 @@
         <v>65</v>
       </c>
       <c r="G115" s="20"/>
-      <c r="H115" s="20" t="s">
+      <c r="H115" s="20"/>
+      <c r="I115" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I115" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J115" s="45">
+      <c r="J115" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K115" s="45">
         <v>8</v>
       </c>
-      <c r="K115" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L115" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M115" s="22"/>
-      <c r="N115" s="37"/>
-      <c r="O115" s="22"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M115" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N115" s="22"/>
+      <c r="O115" s="37"/>
+      <c r="P115" s="22"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
         <v>46</v>
       </c>
@@ -7419,26 +7564,27 @@
         <v>49</v>
       </c>
       <c r="G116" s="20"/>
-      <c r="H116" s="20" t="s">
+      <c r="H116" s="20"/>
+      <c r="I116" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I116" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J116" s="45">
+      <c r="J116" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K116" s="45">
         <v>8</v>
       </c>
-      <c r="K116" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L116" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M116" s="22"/>
-      <c r="N116" s="37"/>
-      <c r="O116" s="22"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M116" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N116" s="22"/>
+      <c r="O116" s="37"/>
+      <c r="P116" s="22"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
         <v>46</v>
       </c>
@@ -7458,26 +7604,27 @@
         <v>49</v>
       </c>
       <c r="G117" s="20"/>
-      <c r="H117" s="20" t="s">
+      <c r="H117" s="20"/>
+      <c r="I117" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I117" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J117" s="45">
+      <c r="J117" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117" s="45">
         <v>8</v>
       </c>
-      <c r="K117" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L117" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M117" s="22"/>
-      <c r="N117" s="37"/>
-      <c r="O117" s="22"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M117" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N117" s="22"/>
+      <c r="O117" s="37"/>
+      <c r="P117" s="22"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="20" t="s">
         <v>46</v>
       </c>
@@ -7497,26 +7644,27 @@
         <v>65</v>
       </c>
       <c r="G118" s="20"/>
-      <c r="H118" s="20" t="s">
+      <c r="H118" s="20"/>
+      <c r="I118" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I118" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J118" s="45">
+      <c r="J118" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K118" s="45">
         <v>8</v>
       </c>
-      <c r="K118" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L118" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M118" s="22"/>
-      <c r="N118" s="37"/>
-      <c r="O118" s="22"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M118" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N118" s="22"/>
+      <c r="O118" s="37"/>
+      <c r="P118" s="22"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
         <v>46</v>
       </c>
@@ -7536,26 +7684,27 @@
         <v>65</v>
       </c>
       <c r="G119" s="20"/>
-      <c r="H119" s="20" t="s">
+      <c r="H119" s="20"/>
+      <c r="I119" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I119" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J119" s="45">
+      <c r="J119" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K119" s="45">
         <v>8</v>
       </c>
-      <c r="K119" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L119" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M119" s="22"/>
-      <c r="N119" s="37"/>
-      <c r="O119" s="22"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M119" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N119" s="22"/>
+      <c r="O119" s="37"/>
+      <c r="P119" s="22"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
         <v>46</v>
       </c>
@@ -7575,26 +7724,27 @@
         <v>49</v>
       </c>
       <c r="G120" s="20"/>
-      <c r="H120" s="20" t="s">
+      <c r="H120" s="20"/>
+      <c r="I120" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I120" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J120" s="45">
+      <c r="J120" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K120" s="45">
         <v>8</v>
       </c>
-      <c r="K120" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L120" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M120" s="22"/>
-      <c r="N120" s="37"/>
-      <c r="O120" s="22"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M120" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N120" s="22"/>
+      <c r="O120" s="37"/>
+      <c r="P120" s="22"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
         <v>46</v>
       </c>
@@ -7614,26 +7764,27 @@
         <v>49</v>
       </c>
       <c r="G121" s="20"/>
-      <c r="H121" s="20" t="s">
+      <c r="H121" s="20"/>
+      <c r="I121" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I121" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J121" s="45">
+      <c r="J121" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K121" s="45">
         <v>8</v>
       </c>
-      <c r="K121" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L121" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M121" s="22"/>
-      <c r="N121" s="37"/>
-      <c r="O121" s="22"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M121" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N121" s="22"/>
+      <c r="O121" s="37"/>
+      <c r="P121" s="22"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
         <v>46</v>
       </c>
@@ -7653,26 +7804,27 @@
         <v>65</v>
       </c>
       <c r="G122" s="20"/>
-      <c r="H122" s="20" t="s">
+      <c r="H122" s="20"/>
+      <c r="I122" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I122" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J122" s="45">
+      <c r="J122" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K122" s="45">
         <v>8</v>
       </c>
-      <c r="K122" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L122" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M122" s="22"/>
-      <c r="N122" s="37"/>
-      <c r="O122" s="22"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M122" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N122" s="22"/>
+      <c r="O122" s="37"/>
+      <c r="P122" s="22"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="20" t="s">
         <v>46</v>
       </c>
@@ -7692,26 +7844,27 @@
         <v>49</v>
       </c>
       <c r="G123" s="20"/>
-      <c r="H123" s="20" t="s">
+      <c r="H123" s="20"/>
+      <c r="I123" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I123" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J123" s="45">
+      <c r="J123" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K123" s="45">
         <v>8</v>
       </c>
-      <c r="K123" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L123" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M123" s="22"/>
-      <c r="N123" s="37"/>
-      <c r="O123" s="22"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M123" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N123" s="22"/>
+      <c r="O123" s="37"/>
+      <c r="P123" s="22"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="20" t="s">
         <v>46</v>
       </c>
@@ -7731,26 +7884,27 @@
         <v>49</v>
       </c>
       <c r="G124" s="20"/>
-      <c r="H124" s="20" t="s">
+      <c r="H124" s="20"/>
+      <c r="I124" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I124" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J124" s="45">
+      <c r="J124" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124" s="45">
         <v>8</v>
       </c>
-      <c r="K124" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L124" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M124" s="22"/>
-      <c r="N124" s="37"/>
-      <c r="O124" s="22"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M124" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N124" s="22"/>
+      <c r="O124" s="37"/>
+      <c r="P124" s="22"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
         <v>46</v>
       </c>
@@ -7770,26 +7924,27 @@
         <v>65</v>
       </c>
       <c r="G125" s="20"/>
-      <c r="H125" s="20" t="s">
+      <c r="H125" s="20"/>
+      <c r="I125" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I125" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J125" s="45">
+      <c r="J125" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K125" s="45">
         <v>9</v>
       </c>
-      <c r="K125" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L125" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M125" s="22"/>
-      <c r="N125" s="37"/>
-      <c r="O125" s="22"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M125" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N125" s="22"/>
+      <c r="O125" s="37"/>
+      <c r="P125" s="22"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
         <v>46</v>
       </c>
@@ -7809,26 +7964,27 @@
         <v>49</v>
       </c>
       <c r="G126" s="20"/>
-      <c r="H126" s="20" t="s">
+      <c r="H126" s="20"/>
+      <c r="I126" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I126" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J126" s="45">
+      <c r="J126" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K126" s="45">
         <v>9</v>
       </c>
-      <c r="K126" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L126" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M126" s="22"/>
-      <c r="N126" s="37"/>
-      <c r="O126" s="22"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M126" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N126" s="22"/>
+      <c r="O126" s="37"/>
+      <c r="P126" s="22"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
         <v>46</v>
       </c>
@@ -7848,26 +8004,27 @@
         <v>65</v>
       </c>
       <c r="G127" s="20"/>
-      <c r="H127" s="20" t="s">
+      <c r="H127" s="20"/>
+      <c r="I127" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I127" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J127" s="45">
+      <c r="J127" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K127" s="45">
         <v>9</v>
       </c>
-      <c r="K127" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L127" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M127" s="22"/>
-      <c r="N127" s="37"/>
-      <c r="O127" s="22"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M127" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N127" s="22"/>
+      <c r="O127" s="37"/>
+      <c r="P127" s="22"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
         <v>46</v>
       </c>
@@ -7887,26 +8044,27 @@
         <v>65</v>
       </c>
       <c r="G128" s="20"/>
-      <c r="H128" s="20" t="s">
+      <c r="H128" s="20"/>
+      <c r="I128" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I128" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J128" s="45">
+      <c r="J128" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K128" s="45">
         <v>9</v>
       </c>
-      <c r="K128" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L128" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M128" s="22"/>
-      <c r="N128" s="37"/>
-      <c r="O128" s="22"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M128" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N128" s="22"/>
+      <c r="O128" s="37"/>
+      <c r="P128" s="22"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="20" t="s">
         <v>46</v>
       </c>
@@ -7926,26 +8084,27 @@
         <v>49</v>
       </c>
       <c r="G129" s="20"/>
-      <c r="H129" s="20" t="s">
+      <c r="H129" s="20"/>
+      <c r="I129" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I129" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J129" s="45">
+      <c r="J129" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K129" s="45">
         <v>9</v>
       </c>
-      <c r="K129" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L129" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M129" s="22"/>
-      <c r="N129" s="37"/>
-      <c r="O129" s="22"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M129" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N129" s="22"/>
+      <c r="O129" s="37"/>
+      <c r="P129" s="22"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="20" t="s">
         <v>46</v>
       </c>
@@ -7965,26 +8124,27 @@
         <v>49</v>
       </c>
       <c r="G130" s="20"/>
-      <c r="H130" s="20" t="s">
+      <c r="H130" s="20"/>
+      <c r="I130" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I130" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J130" s="45">
+      <c r="J130" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K130" s="45">
         <v>9</v>
       </c>
-      <c r="K130" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L130" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M130" s="22"/>
-      <c r="N130" s="37"/>
-      <c r="O130" s="22"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M130" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N130" s="22"/>
+      <c r="O130" s="37"/>
+      <c r="P130" s="22"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
         <v>46</v>
       </c>
@@ -8004,26 +8164,27 @@
         <v>49</v>
       </c>
       <c r="G131" s="20"/>
-      <c r="H131" s="20" t="s">
+      <c r="H131" s="20"/>
+      <c r="I131" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I131" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J131" s="45">
+      <c r="J131" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K131" s="45">
         <v>9</v>
       </c>
-      <c r="K131" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L131" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M131" s="22"/>
-      <c r="N131" s="37"/>
-      <c r="O131" s="22"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M131" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N131" s="22"/>
+      <c r="O131" s="37"/>
+      <c r="P131" s="22"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="20" t="s">
         <v>46</v>
       </c>
@@ -8043,26 +8204,27 @@
         <v>49</v>
       </c>
       <c r="G132" s="20"/>
-      <c r="H132" s="20" t="s">
+      <c r="H132" s="20"/>
+      <c r="I132" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I132" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J132" s="45">
+      <c r="J132" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K132" s="45">
         <v>9</v>
       </c>
-      <c r="K132" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L132" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M132" s="22"/>
-      <c r="N132" s="37"/>
-      <c r="O132" s="22"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M132" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N132" s="22"/>
+      <c r="O132" s="37"/>
+      <c r="P132" s="22"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="20" t="s">
         <v>46</v>
       </c>
@@ -8082,26 +8244,27 @@
         <v>65</v>
       </c>
       <c r="G133" s="20"/>
-      <c r="H133" s="20" t="s">
+      <c r="H133" s="20"/>
+      <c r="I133" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I133" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J133" s="45">
+      <c r="J133" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K133" s="45">
         <v>9</v>
       </c>
-      <c r="K133" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L133" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M133" s="22"/>
-      <c r="N133" s="37"/>
-      <c r="O133" s="22"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M133" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N133" s="22"/>
+      <c r="O133" s="37"/>
+      <c r="P133" s="22"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="20" t="s">
         <v>46</v>
       </c>
@@ -8121,26 +8284,27 @@
         <v>49</v>
       </c>
       <c r="G134" s="20"/>
-      <c r="H134" s="20" t="s">
+      <c r="H134" s="20"/>
+      <c r="I134" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I134" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J134" s="45">
+      <c r="J134" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K134" s="45">
         <v>9</v>
       </c>
-      <c r="K134" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L134" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M134" s="22"/>
-      <c r="N134" s="37"/>
-      <c r="O134" s="22"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M134" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N134" s="22"/>
+      <c r="O134" s="37"/>
+      <c r="P134" s="22"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="20" t="s">
         <v>46</v>
       </c>
@@ -8160,26 +8324,27 @@
         <v>65</v>
       </c>
       <c r="G135" s="20"/>
-      <c r="H135" s="20" t="s">
+      <c r="H135" s="20"/>
+      <c r="I135" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I135" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J135" s="45">
+      <c r="J135" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K135" s="45">
         <v>9</v>
       </c>
-      <c r="K135" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L135" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M135" s="22"/>
-      <c r="N135" s="37"/>
-      <c r="O135" s="22"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M135" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N135" s="22"/>
+      <c r="O135" s="37"/>
+      <c r="P135" s="22"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="20" t="s">
         <v>46</v>
       </c>
@@ -8199,26 +8364,27 @@
         <v>65</v>
       </c>
       <c r="G136" s="20"/>
-      <c r="H136" s="20" t="s">
+      <c r="H136" s="20"/>
+      <c r="I136" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I136" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J136" s="45">
+      <c r="J136" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K136" s="45">
         <v>9</v>
       </c>
-      <c r="K136" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L136" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M136" s="22"/>
-      <c r="N136" s="37"/>
-      <c r="O136" s="22"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M136" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N136" s="22"/>
+      <c r="O136" s="37"/>
+      <c r="P136" s="22"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="20" t="s">
         <v>46</v>
       </c>
@@ -8238,26 +8404,27 @@
         <v>49</v>
       </c>
       <c r="G137" s="20"/>
-      <c r="H137" s="20" t="s">
+      <c r="H137" s="20"/>
+      <c r="I137" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I137" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J137" s="45">
+      <c r="J137" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K137" s="45">
         <v>9</v>
       </c>
-      <c r="K137" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L137" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M137" s="22"/>
-      <c r="N137" s="37"/>
-      <c r="O137" s="22"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M137" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N137" s="22"/>
+      <c r="O137" s="37"/>
+      <c r="P137" s="22"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="20" t="s">
         <v>46</v>
       </c>
@@ -8277,26 +8444,27 @@
         <v>65</v>
       </c>
       <c r="G138" s="20"/>
-      <c r="H138" s="20" t="s">
+      <c r="H138" s="20"/>
+      <c r="I138" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I138" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J138" s="45">
+      <c r="J138" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K138" s="45">
         <v>10</v>
       </c>
-      <c r="K138" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L138" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M138" s="22"/>
-      <c r="N138" s="37"/>
-      <c r="O138" s="22"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M138" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N138" s="22"/>
+      <c r="O138" s="37"/>
+      <c r="P138" s="22"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="20" t="s">
         <v>46</v>
       </c>
@@ -8316,26 +8484,27 @@
         <v>49</v>
       </c>
       <c r="G139" s="20"/>
-      <c r="H139" s="20" t="s">
+      <c r="H139" s="20"/>
+      <c r="I139" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I139" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J139" s="45">
+      <c r="J139" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K139" s="45">
         <v>10</v>
       </c>
-      <c r="K139" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L139" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M139" s="22"/>
-      <c r="N139" s="37"/>
-      <c r="O139" s="22"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M139" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N139" s="22"/>
+      <c r="O139" s="37"/>
+      <c r="P139" s="22"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="20" t="s">
         <v>46</v>
       </c>
@@ -8355,26 +8524,27 @@
         <v>49</v>
       </c>
       <c r="G140" s="20"/>
-      <c r="H140" s="20" t="s">
+      <c r="H140" s="20"/>
+      <c r="I140" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I140" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J140" s="45">
+      <c r="J140" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K140" s="45">
         <v>10</v>
       </c>
-      <c r="K140" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L140" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M140" s="22"/>
-      <c r="N140" s="37"/>
-      <c r="O140" s="22"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M140" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N140" s="22"/>
+      <c r="O140" s="37"/>
+      <c r="P140" s="22"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="20" t="s">
         <v>46</v>
       </c>
@@ -8394,26 +8564,27 @@
         <v>49</v>
       </c>
       <c r="G141" s="20"/>
-      <c r="H141" s="20" t="s">
+      <c r="H141" s="20"/>
+      <c r="I141" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I141" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J141" s="45">
+      <c r="J141" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K141" s="45">
         <v>10</v>
       </c>
-      <c r="K141" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L141" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M141" s="22"/>
-      <c r="N141" s="37"/>
-      <c r="O141" s="22"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M141" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N141" s="22"/>
+      <c r="O141" s="37"/>
+      <c r="P141" s="22"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
         <v>46</v>
       </c>
@@ -8433,26 +8604,27 @@
         <v>49</v>
       </c>
       <c r="G142" s="20"/>
-      <c r="H142" s="20" t="s">
+      <c r="H142" s="20"/>
+      <c r="I142" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I142" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J142" s="45">
+      <c r="J142" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K142" s="45">
         <v>10</v>
       </c>
-      <c r="K142" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L142" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M142" s="22"/>
-      <c r="N142" s="37"/>
-      <c r="O142" s="22"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M142" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N142" s="22"/>
+      <c r="O142" s="37"/>
+      <c r="P142" s="22"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="20" t="s">
         <v>46</v>
       </c>
@@ -8472,26 +8644,27 @@
         <v>49</v>
       </c>
       <c r="G143" s="20"/>
-      <c r="H143" s="20" t="s">
+      <c r="H143" s="20"/>
+      <c r="I143" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I143" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J143" s="45">
+      <c r="J143" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K143" s="45">
         <v>10</v>
       </c>
-      <c r="K143" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L143" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M143" s="22"/>
-      <c r="N143" s="37"/>
-      <c r="O143" s="22"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M143" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N143" s="22"/>
+      <c r="O143" s="37"/>
+      <c r="P143" s="22"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
         <v>46</v>
       </c>
@@ -8511,26 +8684,27 @@
         <v>65</v>
       </c>
       <c r="G144" s="20"/>
-      <c r="H144" s="20" t="s">
+      <c r="H144" s="20"/>
+      <c r="I144" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I144" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J144" s="45">
+      <c r="J144" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K144" s="45">
         <v>10</v>
       </c>
-      <c r="K144" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L144" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M144" s="22"/>
-      <c r="N144" s="37"/>
-      <c r="O144" s="22"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M144" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N144" s="22"/>
+      <c r="O144" s="37"/>
+      <c r="P144" s="22"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
         <v>46</v>
       </c>
@@ -8550,26 +8724,27 @@
         <v>49</v>
       </c>
       <c r="G145" s="20"/>
-      <c r="H145" s="20" t="s">
+      <c r="H145" s="20"/>
+      <c r="I145" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I145" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J145" s="45">
+      <c r="J145" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K145" s="45">
         <v>10</v>
       </c>
-      <c r="K145" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L145" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M145" s="22"/>
-      <c r="N145" s="37"/>
-      <c r="O145" s="22"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M145" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N145" s="22"/>
+      <c r="O145" s="37"/>
+      <c r="P145" s="22"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
         <v>46</v>
       </c>
@@ -8589,26 +8764,27 @@
         <v>49</v>
       </c>
       <c r="G146" s="20"/>
-      <c r="H146" s="20" t="s">
+      <c r="H146" s="20"/>
+      <c r="I146" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I146" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J146" s="45">
+      <c r="J146" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K146" s="45">
         <v>11</v>
       </c>
-      <c r="K146" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L146" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M146" s="22"/>
-      <c r="N146" s="37"/>
-      <c r="O146" s="22"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M146" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N146" s="22"/>
+      <c r="O146" s="37"/>
+      <c r="P146" s="22"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="20" t="s">
         <v>46</v>
       </c>
@@ -8628,26 +8804,27 @@
         <v>65</v>
       </c>
       <c r="G147" s="20"/>
-      <c r="H147" s="20" t="s">
+      <c r="H147" s="20"/>
+      <c r="I147" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I147" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J147" s="45">
+      <c r="J147" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K147" s="45">
         <v>11</v>
       </c>
-      <c r="K147" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L147" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M147" s="22"/>
-      <c r="N147" s="37"/>
-      <c r="O147" s="22"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M147" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N147" s="22"/>
+      <c r="O147" s="37"/>
+      <c r="P147" s="22"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="20" t="s">
         <v>46</v>
       </c>
@@ -8667,26 +8844,27 @@
         <v>49</v>
       </c>
       <c r="G148" s="20"/>
-      <c r="H148" s="20" t="s">
+      <c r="H148" s="20"/>
+      <c r="I148" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I148" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J148" s="45">
+      <c r="J148" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K148" s="45">
         <v>11</v>
       </c>
-      <c r="K148" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L148" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M148" s="22"/>
-      <c r="N148" s="37"/>
-      <c r="O148" s="22"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M148" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N148" s="22"/>
+      <c r="O148" s="37"/>
+      <c r="P148" s="22"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="20" t="s">
         <v>46</v>
       </c>
@@ -8706,26 +8884,27 @@
         <v>49</v>
       </c>
       <c r="G149" s="20"/>
-      <c r="H149" s="20" t="s">
+      <c r="H149" s="20"/>
+      <c r="I149" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I149" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J149" s="45">
+      <c r="J149" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K149" s="45">
         <v>11</v>
       </c>
-      <c r="K149" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L149" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M149" s="22"/>
-      <c r="N149" s="37"/>
-      <c r="O149" s="22"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M149" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N149" s="22"/>
+      <c r="O149" s="37"/>
+      <c r="P149" s="22"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="20" t="s">
         <v>46</v>
       </c>
@@ -8745,26 +8924,27 @@
         <v>65</v>
       </c>
       <c r="G150" s="20"/>
-      <c r="H150" s="20" t="s">
+      <c r="H150" s="20"/>
+      <c r="I150" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I150" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J150" s="45">
+      <c r="J150" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K150" s="45">
         <v>11</v>
       </c>
-      <c r="K150" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L150" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M150" s="22"/>
-      <c r="N150" s="37"/>
-      <c r="O150" s="22"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M150" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N150" s="22"/>
+      <c r="O150" s="37"/>
+      <c r="P150" s="22"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="20" t="s">
         <v>46</v>
       </c>
@@ -8784,26 +8964,27 @@
         <v>49</v>
       </c>
       <c r="G151" s="20"/>
-      <c r="H151" s="20" t="s">
+      <c r="H151" s="20"/>
+      <c r="I151" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I151" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J151" s="45">
+      <c r="J151" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K151" s="45">
         <v>12</v>
       </c>
-      <c r="K151" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L151" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M151" s="22"/>
-      <c r="N151" s="37"/>
-      <c r="O151" s="22"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M151" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N151" s="22"/>
+      <c r="O151" s="37"/>
+      <c r="P151" s="22"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="20" t="s">
         <v>46</v>
       </c>
@@ -8821,26 +9002,27 @@
         <v>49</v>
       </c>
       <c r="G152" s="20"/>
-      <c r="H152" s="20" t="s">
+      <c r="H152" s="20"/>
+      <c r="I152" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I152" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J152" s="45">
+      <c r="J152" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K152" s="45">
         <v>11</v>
       </c>
-      <c r="K152" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L152" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M152" s="22"/>
-      <c r="N152" s="37"/>
-      <c r="O152" s="22"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M152" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N152" s="22"/>
+      <c r="O152" s="37"/>
+      <c r="P152" s="22"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="20" t="s">
         <v>46</v>
       </c>
@@ -8861,23 +9043,24 @@
       </c>
       <c r="G153" s="20"/>
       <c r="H153" s="20"/>
-      <c r="I153" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J153" s="45">
+      <c r="I153" s="20"/>
+      <c r="J153" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K153" s="45">
         <v>11</v>
       </c>
-      <c r="K153" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="L153" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M153" s="22"/>
-      <c r="N153" s="37"/>
-      <c r="O153" s="22"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M153" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N153" s="22"/>
+      <c r="O153" s="37"/>
+      <c r="P153" s="22"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="20" t="s">
         <v>46</v>
       </c>
@@ -8897,33 +9080,34 @@
         <v>49</v>
       </c>
       <c r="G154" s="20"/>
-      <c r="H154" s="20" t="s">
+      <c r="H154" s="20"/>
+      <c r="I154" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I154" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J154" s="45">
+      <c r="J154" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K154" s="45">
         <v>12</v>
       </c>
-      <c r="K154" s="20" t="s">
+      <c r="L154" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="L154" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M154" s="22"/>
-      <c r="N154" s="37"/>
-      <c r="O154" s="22"/>
+      <c r="M154" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N154" s="22"/>
+      <c r="O154" s="37"/>
+      <c r="P154" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L3">
+  <autoFilter ref="A3:M3">
     <sortState ref="A4:L151">
       <sortCondition ref="C3"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -49477,21 +49661,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100F523294A4C748C4D96F9DD41EBAFE33C" ma:contentTypeVersion="2" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="7222130a64d26bd6a5c3a2a9e5c1c097">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1373898a-3781-4d30-8397-9da1a4eac464" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6261321dfd5fa035fd3f92f0744c5b" ns2:_="">
     <xsd:import namespace="1373898a-3781-4d30-8397-9da1a4eac464"/>
@@ -49639,10 +49808,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2500D75-6B13-4050-B65D-E203B093A8B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CA9F559-71D6-47EB-B0F8-9B7C77622657}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1373898a-3781-4d30-8397-9da1a4eac464"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -49664,19 +49858,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CA9F559-71D6-47EB-B0F8-9B7C77622657}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2500D75-6B13-4050-B65D-E203B093A8B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1373898a-3781-4d30-8397-9da1a4eac464"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/budgeteer-ubw-importer/src/main/resources/example_ubw_report.xlsx
+++ b/budgeteer-ubw-importer/src/main/resources/example_ubw_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trzpiot\Documents\Workspace\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trzpiot\Documents\Workspace\budgeteer\budgeteer-ubw-importer\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3183,7 +3183,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3291,10 +3291,7 @@
       <c r="C4" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="114">
-        <f ca="1">TODAY()-39</f>
-        <v>43283</v>
-      </c>
+      <c r="D4" s="114"/>
       <c r="E4" s="113"/>
       <c r="F4" s="113"/>
       <c r="G4" s="113">
@@ -3330,10 +3327,7 @@
       <c r="C5" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="114">
-        <f ca="1">TODAY()-38</f>
-        <v>43284</v>
-      </c>
+      <c r="D5" s="114"/>
       <c r="E5" s="113"/>
       <c r="F5" s="113"/>
       <c r="G5" s="113">
@@ -3369,10 +3363,7 @@
       <c r="C6" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="114">
-        <f ca="1">TODAY()-37</f>
-        <v>43285</v>
-      </c>
+      <c r="D6" s="114"/>
       <c r="E6" s="113"/>
       <c r="F6" s="113"/>
       <c r="G6" s="113">
@@ -3408,10 +3399,7 @@
       <c r="C7" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="114">
-        <f t="shared" ref="D7:D31" ca="1" si="0">D8-IF(WEEKDAY(D8,2)=1,3,1)</f>
-        <v>43286</v>
-      </c>
+      <c r="D7" s="114"/>
       <c r="E7" s="113"/>
       <c r="F7" s="113"/>
       <c r="G7" s="113">
@@ -3447,10 +3435,7 @@
       <c r="C8" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43287</v>
-      </c>
+      <c r="D8" s="114"/>
       <c r="E8" s="113"/>
       <c r="F8" s="113"/>
       <c r="G8" s="113">
@@ -3486,10 +3471,7 @@
       <c r="C9" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43290</v>
-      </c>
+      <c r="D9" s="114"/>
       <c r="E9" s="113"/>
       <c r="F9" s="113"/>
       <c r="G9" s="113">
@@ -3525,10 +3507,7 @@
       <c r="C10" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43291</v>
-      </c>
+      <c r="D10" s="114"/>
       <c r="E10" s="113"/>
       <c r="F10" s="113"/>
       <c r="G10" s="113">
@@ -3564,10 +3543,7 @@
       <c r="C11" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43292</v>
-      </c>
+      <c r="D11" s="114"/>
       <c r="E11" s="113"/>
       <c r="F11" s="113"/>
       <c r="G11" s="113">
@@ -3603,10 +3579,7 @@
       <c r="C12" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43293</v>
-      </c>
+      <c r="D12" s="114"/>
       <c r="E12" s="113"/>
       <c r="F12" s="113"/>
       <c r="G12" s="113">
@@ -3642,10 +3615,7 @@
       <c r="C13" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43294</v>
-      </c>
+      <c r="D13" s="114"/>
       <c r="E13" s="113"/>
       <c r="F13" s="113"/>
       <c r="G13" s="113">
@@ -3681,10 +3651,7 @@
       <c r="C14" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43297</v>
-      </c>
+      <c r="D14" s="114"/>
       <c r="E14" s="113"/>
       <c r="F14" s="113"/>
       <c r="G14" s="113">
@@ -3720,10 +3687,7 @@
       <c r="C15" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43298</v>
-      </c>
+      <c r="D15" s="114"/>
       <c r="E15" s="113"/>
       <c r="F15" s="113"/>
       <c r="G15" s="113">
@@ -3759,10 +3723,7 @@
       <c r="C16" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43299</v>
-      </c>
+      <c r="D16" s="114"/>
       <c r="E16" s="113"/>
       <c r="F16" s="113"/>
       <c r="G16" s="113">
@@ -3796,10 +3757,7 @@
       <c r="C17" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43300</v>
-      </c>
+      <c r="D17" s="114"/>
       <c r="E17" s="113"/>
       <c r="F17" s="113"/>
       <c r="G17" s="113">
@@ -3833,10 +3791,7 @@
       <c r="C18" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43301</v>
-      </c>
+      <c r="D18" s="114"/>
       <c r="E18" s="113"/>
       <c r="F18" s="113"/>
       <c r="G18" s="113">
@@ -3870,10 +3825,7 @@
       <c r="C19" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43304</v>
-      </c>
+      <c r="D19" s="114"/>
       <c r="E19" s="113"/>
       <c r="F19" s="113"/>
       <c r="G19" s="113">
@@ -3909,10 +3861,7 @@
       <c r="C20" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43305</v>
-      </c>
+      <c r="D20" s="114"/>
       <c r="E20" s="113"/>
       <c r="F20" s="113"/>
       <c r="G20" s="113">
@@ -3948,10 +3897,7 @@
       <c r="C21" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43306</v>
-      </c>
+      <c r="D21" s="114"/>
       <c r="E21" s="113"/>
       <c r="F21" s="113"/>
       <c r="G21" s="113">
@@ -3987,10 +3933,7 @@
       <c r="C22" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43307</v>
-      </c>
+      <c r="D22" s="114"/>
       <c r="E22" s="113"/>
       <c r="F22" s="113"/>
       <c r="G22" s="113">
@@ -4026,10 +3969,7 @@
       <c r="C23" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43308</v>
-      </c>
+      <c r="D23" s="114"/>
       <c r="E23" s="113"/>
       <c r="F23" s="113"/>
       <c r="G23" s="113">
@@ -4065,10 +4005,7 @@
       <c r="C24" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43311</v>
-      </c>
+      <c r="D24" s="114"/>
       <c r="E24" s="113"/>
       <c r="F24" s="113"/>
       <c r="G24" s="113">
@@ -4102,10 +4039,7 @@
       <c r="C25" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43312</v>
-      </c>
+      <c r="D25" s="114"/>
       <c r="E25" s="113"/>
       <c r="F25" s="113"/>
       <c r="G25" s="113">
@@ -4141,10 +4075,7 @@
       <c r="C26" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43313</v>
-      </c>
+      <c r="D26" s="114"/>
       <c r="E26" s="113"/>
       <c r="F26" s="113"/>
       <c r="G26" s="113">
@@ -4180,10 +4111,7 @@
       <c r="C27" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43314</v>
-      </c>
+      <c r="D27" s="114"/>
       <c r="E27" s="113"/>
       <c r="F27" s="113"/>
       <c r="G27" s="113">
@@ -4217,10 +4145,7 @@
       <c r="C28" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43315</v>
-      </c>
+      <c r="D28" s="114"/>
       <c r="E28" s="113"/>
       <c r="F28" s="113"/>
       <c r="G28" s="113">
@@ -4256,10 +4181,7 @@
       <c r="C29" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43318</v>
-      </c>
+      <c r="D29" s="114"/>
       <c r="E29" s="113"/>
       <c r="F29" s="113"/>
       <c r="G29" s="113">
@@ -4295,10 +4217,7 @@
       <c r="C30" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43319</v>
-      </c>
+      <c r="D30" s="114"/>
       <c r="E30" s="113"/>
       <c r="F30" s="113"/>
       <c r="G30" s="113">
@@ -4334,10 +4253,7 @@
       <c r="C31" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="114">
-        <f t="shared" ca="1" si="0"/>
-        <v>43320</v>
-      </c>
+      <c r="D31" s="114"/>
       <c r="E31" s="113"/>
       <c r="F31" s="113"/>
       <c r="G31" s="113">
@@ -4373,10 +4289,7 @@
       <c r="C32" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="114">
-        <f ca="1">D33-IF(WEEKDAY(D33,2)=1,3,1)</f>
-        <v>43321</v>
-      </c>
+      <c r="D32" s="114"/>
       <c r="E32" s="113"/>
       <c r="F32" s="113"/>
       <c r="G32" s="113">
@@ -4410,10 +4323,7 @@
       <c r="C33" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="114">
-        <f ca="1">TODAY()</f>
-        <v>43322</v>
-      </c>
+      <c r="D33" s="114"/>
       <c r="E33" s="113"/>
       <c r="F33" s="113"/>
       <c r="G33" s="113">
@@ -4449,10 +4359,7 @@
       <c r="C34" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="114">
-        <f t="shared" ref="D34:D38" ca="1" si="1">D35-IF(WEEKDAY(D35,2)=1,3,1)</f>
-        <v>43283</v>
-      </c>
+      <c r="D34" s="114"/>
       <c r="E34" s="113"/>
       <c r="F34" s="113"/>
       <c r="G34" s="113">
@@ -4488,10 +4395,7 @@
       <c r="C35" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="114">
-        <f t="shared" ca="1" si="1"/>
-        <v>43284</v>
-      </c>
+      <c r="D35" s="114"/>
       <c r="E35" s="113"/>
       <c r="F35" s="113"/>
       <c r="G35" s="113">
@@ -4527,10 +4431,7 @@
       <c r="C36" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="114">
-        <f t="shared" ca="1" si="1"/>
-        <v>43285</v>
-      </c>
+      <c r="D36" s="114"/>
       <c r="E36" s="113"/>
       <c r="F36" s="113"/>
       <c r="G36" s="113">
@@ -4566,10 +4467,7 @@
       <c r="C37" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="114">
-        <f t="shared" ca="1" si="1"/>
-        <v>43286</v>
-      </c>
+      <c r="D37" s="114"/>
       <c r="E37" s="113"/>
       <c r="F37" s="113"/>
       <c r="G37" s="113">
@@ -4605,10 +4503,7 @@
       <c r="C38" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="114">
-        <f t="shared" ca="1" si="1"/>
-        <v>43287</v>
-      </c>
+      <c r="D38" s="114"/>
       <c r="E38" s="113"/>
       <c r="F38" s="113"/>
       <c r="G38" s="113">
@@ -4644,10 +4539,7 @@
       <c r="C39" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="114">
-        <f t="shared" ref="D39:D48" ca="1" si="2">D40-IF(WEEKDAY(D40,2)=1,3,1)</f>
-        <v>43290</v>
-      </c>
+      <c r="D39" s="114"/>
       <c r="E39" s="113"/>
       <c r="F39" s="113"/>
       <c r="G39" s="113">
@@ -4683,10 +4575,7 @@
       <c r="C40" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>43291</v>
-      </c>
+      <c r="D40" s="114"/>
       <c r="E40" s="113"/>
       <c r="F40" s="113"/>
       <c r="G40" s="113">
@@ -4722,10 +4611,7 @@
       <c r="C41" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>43292</v>
-      </c>
+      <c r="D41" s="114"/>
       <c r="E41" s="113"/>
       <c r="F41" s="113"/>
       <c r="G41" s="113">
@@ -4761,10 +4647,7 @@
       <c r="C42" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>43293</v>
-      </c>
+      <c r="D42" s="114"/>
       <c r="E42" s="113"/>
       <c r="F42" s="113"/>
       <c r="G42" s="113">
@@ -4800,10 +4683,7 @@
       <c r="C43" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>43294</v>
-      </c>
+      <c r="D43" s="114"/>
       <c r="E43" s="113"/>
       <c r="F43" s="113"/>
       <c r="G43" s="113">
@@ -4839,10 +4719,7 @@
       <c r="C44" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>43297</v>
-      </c>
+      <c r="D44" s="114"/>
       <c r="E44" s="113"/>
       <c r="F44" s="113"/>
       <c r="G44" s="113">
@@ -4878,10 +4755,7 @@
       <c r="C45" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>43298</v>
-      </c>
+      <c r="D45" s="114"/>
       <c r="E45" s="113"/>
       <c r="F45" s="113"/>
       <c r="G45" s="113">
@@ -4917,10 +4791,7 @@
       <c r="C46" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>43299</v>
-      </c>
+      <c r="D46" s="114"/>
       <c r="E46" s="113"/>
       <c r="F46" s="113"/>
       <c r="G46" s="113">
@@ -4956,10 +4827,7 @@
       <c r="C47" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>43300</v>
-      </c>
+      <c r="D47" s="114"/>
       <c r="E47" s="113"/>
       <c r="F47" s="113"/>
       <c r="G47" s="113">
@@ -4995,10 +4863,7 @@
       <c r="C48" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="114">
-        <f t="shared" ca="1" si="2"/>
-        <v>43301</v>
-      </c>
+      <c r="D48" s="114"/>
       <c r="E48" s="113"/>
       <c r="F48" s="113"/>
       <c r="G48" s="113">
@@ -5034,10 +4899,7 @@
       <c r="C49" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="114">
-        <f t="shared" ref="D49:D60" ca="1" si="3">D50-IF(WEEKDAY(D50,2)=1,3,1)</f>
-        <v>43304</v>
-      </c>
+      <c r="D49" s="114"/>
       <c r="E49" s="113"/>
       <c r="F49" s="113"/>
       <c r="G49" s="113">
@@ -5073,10 +4935,7 @@
       <c r="C50" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="114">
-        <f t="shared" ca="1" si="3"/>
-        <v>43305</v>
-      </c>
+      <c r="D50" s="114"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113">
@@ -5112,10 +4971,7 @@
       <c r="C51" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="114">
-        <f t="shared" ca="1" si="3"/>
-        <v>43306</v>
-      </c>
+      <c r="D51" s="114"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113">
@@ -5151,10 +5007,7 @@
       <c r="C52" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="114">
-        <f t="shared" ca="1" si="3"/>
-        <v>43307</v>
-      </c>
+      <c r="D52" s="114"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113">
@@ -5190,10 +5043,7 @@
       <c r="C53" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="114">
-        <f t="shared" ca="1" si="3"/>
-        <v>43308</v>
-      </c>
+      <c r="D53" s="114"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113">
@@ -5229,10 +5079,7 @@
       <c r="C54" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="114">
-        <f t="shared" ca="1" si="3"/>
-        <v>43311</v>
-      </c>
+      <c r="D54" s="114"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113">
@@ -5268,10 +5115,7 @@
       <c r="C55" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="114">
-        <f t="shared" ca="1" si="3"/>
-        <v>43312</v>
-      </c>
+      <c r="D55" s="114"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113">
@@ -5307,10 +5151,7 @@
       <c r="C56" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="114">
-        <f t="shared" ca="1" si="3"/>
-        <v>43313</v>
-      </c>
+      <c r="D56" s="114"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113">
@@ -5346,10 +5187,7 @@
       <c r="C57" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="114">
-        <f t="shared" ca="1" si="3"/>
-        <v>43314</v>
-      </c>
+      <c r="D57" s="114"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113">
@@ -5385,10 +5223,7 @@
       <c r="C58" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="114">
-        <f t="shared" ca="1" si="3"/>
-        <v>43315</v>
-      </c>
+      <c r="D58" s="114"/>
       <c r="E58" s="113"/>
       <c r="F58" s="113"/>
       <c r="G58" s="113">
@@ -5422,10 +5257,7 @@
       <c r="C59" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="114">
-        <f t="shared" ca="1" si="3"/>
-        <v>43318</v>
-      </c>
+      <c r="D59" s="114"/>
       <c r="E59" s="113"/>
       <c r="F59" s="113"/>
       <c r="G59" s="113">
@@ -5459,10 +5291,7 @@
       <c r="C60" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="114">
-        <f t="shared" ca="1" si="3"/>
-        <v>43319</v>
-      </c>
+      <c r="D60" s="114"/>
       <c r="E60" s="113"/>
       <c r="F60" s="113"/>
       <c r="G60" s="113">
@@ -5496,10 +5325,7 @@
       <c r="C61" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="114">
-        <f ca="1">D62-IF(WEEKDAY(D62,2)=1,3,1)</f>
-        <v>43320</v>
-      </c>
+      <c r="D61" s="114"/>
       <c r="E61" s="113"/>
       <c r="F61" s="113"/>
       <c r="G61" s="113">
@@ -5533,10 +5359,7 @@
       <c r="C62" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="114">
-        <f ca="1">TODAY()-1</f>
-        <v>43321</v>
-      </c>
+      <c r="D62" s="114"/>
       <c r="E62" s="113"/>
       <c r="F62" s="113"/>
       <c r="G62" s="113">
@@ -5570,10 +5393,7 @@
       <c r="C63" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="D63" s="114">
-        <f ca="1">TODAY()</f>
-        <v>43322</v>
-      </c>
+      <c r="D63" s="114"/>
       <c r="E63" s="113"/>
       <c r="F63" s="113"/>
       <c r="G63" s="113">
@@ -11840,9 +11660,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11994,26 +11817,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A553A998-B02F-4A44-B634-4323F20DC2E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2500D75-6B13-4050-B65D-E203B093A8B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1373898a-3781-4d30-8397-9da1a4eac464"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12037,9 +11849,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2500D75-6B13-4050-B65D-E203B093A8B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A553A998-B02F-4A44-B634-4323F20DC2E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1373898a-3781-4d30-8397-9da1a4eac464"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>